--- a/data/5_results/dry_run/result_dry_run_1.xlsx
+++ b/data/5_results/dry_run/result_dry_run_1.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,679</t>
+          <t>0,597</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,488</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,955</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,525</t>
+          <t>0,840</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,570</t>
+          <t>0,865</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,648</t>
+          <t>0,582</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,439</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,468</t>
+          <t>0,766</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,613</t>
+          <t>0,931</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,174</t>
+          <t>0,387</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,378</t>
+          <t>0,664</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,174</t>
+          <t>0,387</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,325</t>
+          <t>0,572</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,295</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,214</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,088</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,277</t>
+          <t>0,530</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,214</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,220</t>
+          <t>0,818</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,217</t>
+          <t>0,783</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,255</t>
+          <t>0,803</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,184</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,175</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,179</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,351</t>
+          <t>0,909</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,205</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,203</t>
+          <t>0,640</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,362</t>
+          <t>0,937</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,220</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,220</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,220</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,880</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,238</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,244</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,241</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,287</t>
+          <t>0,843</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,225</t>
+          <t>0,900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,209</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,217</t>
+          <t>0,783</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,225</t>
+          <t>0,706</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,150</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,150</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,150</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,228</t>
+          <t>0,718</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,175</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,194</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,184</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,330</t>
+          <t>0,764</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,095</t>
+          <t>0,379</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,190</t>
+          <t>0,889</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,186</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,188</t>
+          <t>0,842</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,203</t>
+          <t>0,813</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,122</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,118</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,025</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,025</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,389</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,095</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,093</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,094</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,883</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,004</t>
+          <t>0,085</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,317</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,075</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,205</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,051</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,150</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,122</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,118</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2025,22 +2025,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2071,22 +2071,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2163,22 +2163,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,046</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,046</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,070</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,159</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2485,22 +2485,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,383</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2583,22 +2583,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2629,22 +2629,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,108</t>
+          <t>0,431</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,005</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2957,22 +2957,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,006</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3499,22 +3499,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3753,22 +3753,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0,012</t>
+          <t>0,178</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,069</t>
+          <t>0,414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,126</t>
+          <t>0,508</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,152</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,306</t>
+          <t>0,668</t>
         </is>
       </c>
     </row>
